--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\games\lifeRestart\data\zh-cn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\46442\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1499080E-75D6-4741-BCAF-8409240F28AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDE0858-9F04-4AD0-A368-85C5ADC871F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="2080" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="talents" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="591">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2297,6 +2297,14 @@
   </si>
   <si>
     <t>AGE?[20,30]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考上蛋挞中学的概率提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋挞(test)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2397,19 +2405,19 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2701,33 +2709,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL186"/>
+  <dimension ref="A1:AL187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D185" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F169" sqref="F169"/>
+      <selection pane="bottomRight" activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="39.65" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="1"/>
-    <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" style="1"/>
+    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
-    <col min="8" max="13" width="13.5" style="1" customWidth="1"/>
+    <col min="8" max="13" width="13.44140625" style="1" customWidth="1"/>
     <col min="14" max="30" width="23.33203125" style="1" customWidth="1"/>
-    <col min="31" max="33" width="18.83203125" style="6" customWidth="1"/>
+    <col min="31" max="33" width="18.77734375" style="6" customWidth="1"/>
     <col min="34" max="34" width="19.33203125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="21.83203125" style="1" customWidth="1"/>
-    <col min="36" max="36" width="19.08203125" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="25.5" style="1"/>
+    <col min="35" max="35" width="21.77734375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="19.109375" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="25.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>219</v>
       </c>
@@ -2843,7 +2851,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="3" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2959,7 +2967,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2973,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2987,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3010,7 +3018,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -3033,7 +3041,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3047,7 +3055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -3064,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3081,7 +3089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3098,7 +3106,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -3115,7 +3123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3141,7 +3149,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -3155,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -3178,7 +3186,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -3201,7 +3209,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -3227,7 +3235,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -3241,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -3255,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -3269,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -3298,7 +3306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -3315,7 +3323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -3332,7 +3340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -3352,7 +3360,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -3366,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -3395,7 +3403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -3418,7 +3426,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -3444,7 +3452,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -3461,7 +3469,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -3478,7 +3486,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -3492,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -3506,7 +3514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -3520,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -3537,7 +3545,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -3566,7 +3574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -3583,7 +3591,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -3600,7 +3608,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -3617,7 +3625,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -3634,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -3648,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -3662,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
@@ -3676,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -3690,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -3707,7 +3715,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -3721,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -3735,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -3749,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -3763,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -3780,7 +3788,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -3794,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
@@ -3808,7 +3816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -3828,7 +3836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -3848,7 +3856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
@@ -3871,7 +3879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
@@ -3891,7 +3899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>65</v>
       </c>
@@ -3911,7 +3919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,7 +3939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
@@ -3951,7 +3959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
@@ -3971,7 +3979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
@@ -3991,7 +3999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
@@ -4011,7 +4019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -4031,7 +4039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
@@ -4051,7 +4059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -4071,7 +4079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
@@ -4091,7 +4099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -4108,7 +4116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>76</v>
       </c>
@@ -4125,7 +4133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>77</v>
       </c>
@@ -4139,7 +4147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>78</v>
       </c>
@@ -4159,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>79</v>
       </c>
@@ -4179,7 +4187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>80</v>
       </c>
@@ -4199,7 +4207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>81</v>
       </c>
@@ -4219,7 +4227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
@@ -4239,7 +4247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>83</v>
       </c>
@@ -4253,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>84</v>
       </c>
@@ -4267,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>85</v>
       </c>
@@ -4281,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>86</v>
       </c>
@@ -4301,7 +4309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>87</v>
       </c>
@@ -4321,7 +4329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>88</v>
       </c>
@@ -4341,7 +4349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>89</v>
       </c>
@@ -4361,7 +4369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
@@ -4381,7 +4389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
@@ -4401,7 +4409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
@@ -4421,7 +4429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
@@ -4450,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -4479,7 +4487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -4508,7 +4516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
@@ -4531,7 +4539,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="87" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
@@ -4554,7 +4562,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="88" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -4574,7 +4582,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="89" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
@@ -4594,7 +4602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>100</v>
       </c>
@@ -4614,7 +4622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>101</v>
       </c>
@@ -4634,7 +4642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>102</v>
       </c>
@@ -4663,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>103</v>
       </c>
@@ -4692,7 +4700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>104</v>
       </c>
@@ -4721,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>105</v>
       </c>
@@ -4741,7 +4749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -4758,7 +4766,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>107</v>
       </c>
@@ -4787,7 +4795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>108</v>
       </c>
@@ -4816,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>109</v>
       </c>
@@ -4845,7 +4853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>110</v>
       </c>
@@ -4874,7 +4882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>111</v>
       </c>
@@ -4894,7 +4902,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>112</v>
       </c>
@@ -4914,7 +4922,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>113</v>
       </c>
@@ -4946,7 +4954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>114</v>
       </c>
@@ -4978,7 +4986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
@@ -4995,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>116</v>
       </c>
@@ -5012,7 +5020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>117</v>
       </c>
@@ -5029,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
@@ -5043,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>119</v>
       </c>
@@ -5057,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>120</v>
       </c>
@@ -5071,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>121</v>
       </c>
@@ -5085,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>122</v>
       </c>
@@ -5099,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
@@ -5113,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>124</v>
       </c>
@@ -5127,7 +5135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>125</v>
       </c>
@@ -5159,7 +5167,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="116" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>126</v>
       </c>
@@ -5176,7 +5184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
@@ -5190,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>128</v>
       </c>
@@ -5204,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
@@ -5218,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>130</v>
       </c>
@@ -5232,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>402</v>
       </c>
@@ -5246,7 +5254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>403</v>
       </c>
@@ -5260,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>404</v>
       </c>
@@ -5274,7 +5282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>405</v>
       </c>
@@ -5300,7 +5308,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="125" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>406</v>
       </c>
@@ -5314,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>407</v>
       </c>
@@ -5328,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>408</v>
       </c>
@@ -5342,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>409</v>
       </c>
@@ -5356,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>410</v>
       </c>
@@ -5370,7 +5378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>411</v>
       </c>
@@ -5384,7 +5392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>431</v>
       </c>
@@ -5398,7 +5406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>432</v>
       </c>
@@ -5412,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>449</v>
       </c>
@@ -5426,7 +5434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>1132</v>
       </c>
@@ -5440,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>1133</v>
       </c>
@@ -5454,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>1134</v>
       </c>
@@ -5468,7 +5476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>1135</v>
       </c>
@@ -5482,7 +5490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>1136</v>
       </c>
@@ -5499,7 +5507,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="139" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>1137</v>
       </c>
@@ -5531,7 +5539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>1138</v>
       </c>
@@ -5548,7 +5556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>1139</v>
       </c>
@@ -5565,7 +5573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>1140</v>
       </c>
@@ -5582,7 +5590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>1141</v>
       </c>
@@ -5599,7 +5607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>1142</v>
       </c>
@@ -5640,7 +5648,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="145" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>1143</v>
       </c>
@@ -5681,7 +5689,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="146" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>1144</v>
       </c>
@@ -5698,7 +5706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>1145</v>
       </c>
@@ -5760,7 +5768,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="148" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>1146</v>
       </c>
@@ -5795,7 +5803,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="149" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>1147</v>
       </c>
@@ -5809,7 +5817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>1148</v>
       </c>
@@ -5838,7 +5846,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="151" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>2001</v>
       </c>
@@ -5858,7 +5866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>2002</v>
       </c>
@@ -5878,7 +5886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>2003</v>
       </c>
@@ -5895,7 +5903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>2004</v>
       </c>
@@ -5912,7 +5920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>2005</v>
       </c>
@@ -5929,7 +5937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>2006</v>
       </c>
@@ -5973,7 +5981,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="157" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>2007</v>
       </c>
@@ -6005,7 +6013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>2008</v>
       </c>
@@ -6040,7 +6048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>2009</v>
       </c>
@@ -6084,7 +6092,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="160" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>2010</v>
       </c>
@@ -6128,7 +6136,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="161" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>2011</v>
       </c>
@@ -6172,7 +6180,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="162" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>2012</v>
       </c>
@@ -6216,7 +6224,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="163" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>2013</v>
       </c>
@@ -6260,7 +6268,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="164" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>2014</v>
       </c>
@@ -6277,7 +6285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>2015</v>
       </c>
@@ -6315,7 +6323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>2016</v>
       </c>
@@ -6353,7 +6361,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="167" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>2017</v>
       </c>
@@ -6370,7 +6378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>2018</v>
       </c>
@@ -6393,7 +6401,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="169" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>2019</v>
       </c>
@@ -6416,7 +6424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>2020</v>
       </c>
@@ -6439,7 +6447,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="171" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>2021</v>
       </c>
@@ -6500,7 +6508,7 @@
       <c r="AC171" s="6"/>
       <c r="AD171" s="6"/>
     </row>
-    <row r="172" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>2022</v>
       </c>
@@ -6517,7 +6525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>2023</v>
       </c>
@@ -6534,7 +6542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>2024</v>
       </c>
@@ -6551,7 +6559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>2025</v>
       </c>
@@ -6571,7 +6579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>2026</v>
       </c>
@@ -6606,7 +6614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>2027</v>
       </c>
@@ -6647,7 +6655,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="178" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>2028</v>
       </c>
@@ -6667,7 +6675,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="179" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>2029</v>
       </c>
@@ -6687,7 +6695,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="180" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>2030</v>
       </c>
@@ -6707,7 +6715,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="181" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>2031</v>
       </c>
@@ -6727,7 +6735,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="182" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>2032</v>
       </c>
@@ -6747,7 +6755,7 @@
         <v>114509</v>
       </c>
     </row>
-    <row r="183" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>2033</v>
       </c>
@@ -6767,7 +6775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>2034</v>
       </c>
@@ -6787,7 +6795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>2035</v>
       </c>
@@ -6807,7 +6815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>2036</v>
       </c>
@@ -6821,6 +6829,23 @@
         <v>2</v>
       </c>
       <c r="F186" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E187" s="1">
+        <v>2</v>
+      </c>
+      <c r="F187" s="1">
         <v>1</v>
       </c>
     </row>
